--- a/Dashboards/ZR.xlsx
+++ b/Dashboards/ZR.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -76,12 +76,12 @@
     <x:t>Zera</x:t>
   </x:si>
   <x:si>
+    <x:t>Adeadmeme</x:t>
+  </x:si>
+  <x:si>
     <x:t>GoodMorning9000</x:t>
   </x:si>
   <x:si>
-    <x:t>Adeadmeme</x:t>
-  </x:si>
-  <x:si>
     <x:t>kill you all 2</x:t>
   </x:si>
   <x:si>
@@ -103,12 +103,12 @@
     <x:t>Jelly YT 4</x:t>
   </x:si>
   <x:si>
+    <x:t>TheEyeofEnder</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sniper King</x:t>
   </x:si>
   <x:si>
-    <x:t>TheEyeofEnder</x:t>
-  </x:si>
-  <x:si>
     <x:t>CLIPPER</x:t>
   </x:si>
   <x:si>
@@ -316,7 +316,7 @@
     <x:t>3,9 (97/25)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,2 (9341/2203)</x:t>
+    <x:t>4,2 (9688/2312)</x:t>
   </x:si>
   <x:si>
     <x:t>3,8 (162/43)</x:t>
@@ -358,7 +358,10 @@
     <x:t>3,1 (659/213)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,0 (2430/612)</x:t>
+    <x:t>3,2 (347/109)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (2587/645)</x:t>
   </x:si>
   <x:si>
     <x:t>3,5 (257/74)</x:t>
@@ -394,7 +397,7 @@
     <x:t>4,0 (104/26)</x:t>
   </x:si>
   <x:si>
-    <x:t>6,6 (472/72)</x:t>
+    <x:t>6,0 (629/105)</x:t>
   </x:si>
   <x:si>
     <x:t>3,9 (647/165)</x:t>
@@ -424,7 +427,7 @@
     <x:t>5,1 (77/15)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,8 (2135/556)</x:t>
+    <x:t>3,8 (2219/577)</x:t>
   </x:si>
   <x:si>
     <x:t>4,7 (42/9)</x:t>
@@ -466,10 +469,10 @@
     <x:t>3,6 (422/117)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,7 (37/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (2279/602)</x:t>
+    <x:t>3,9 (121/31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (2368/623)</x:t>
   </x:si>
   <x:si>
     <x:t>4,6 (302/65)</x:t>
@@ -505,6 +508,9 @@
     <x:t>2,3 (165/71)</x:t>
   </x:si>
   <x:si>
+    <x:t>4,2 (89/21)</x:t>
+  </x:si>
+  <x:si>
     <x:t>3,7 (2416/650)</x:t>
   </x:si>
   <x:si>
@@ -610,7 +616,7 @@
     <x:t>1,7 (160/96)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,1 (1118/357)</x:t>
+    <x:t>3,2 (1280/402)</x:t>
   </x:si>
   <x:si>
     <x:t>2,8 (110/39)</x:t>
@@ -625,10 +631,10 @@
     <x:t>2,9 (307/107)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (15/7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (799/274)</x:t>
+    <x:t>3,4 (177/52)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (1107/358)</x:t>
   </x:si>
   <x:si>
     <x:t>2,4 (171/72)</x:t>
@@ -637,7 +643,10 @@
     <x:t>3,1 (628/202)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,7 (606/224)</x:t>
+    <x:t>3,7 (308/84)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (628/237)</x:t>
   </x:si>
   <x:si>
     <x:t>2,6 (277/106)</x:t>
@@ -655,7 +664,10 @@
     <x:t>2,4 (63/26)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,7 (606/226)</x:t>
+    <x:t>1,7 (22/13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (743/287)</x:t>
   </x:si>
   <x:si>
     <x:t>2,2 (54/24)</x:t>
@@ -682,7 +694,10 @@
     <x:t>2,8 (236/85)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,4 (1084/446)</x:t>
+    <x:t>2,2 (137/61)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (1155/467)</x:t>
   </x:si>
   <x:si>
     <x:t>2,8 (17/6)</x:t>
@@ -724,7 +739,7 @@
     <x:t>2,2 (103/46)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,2 (48/22)</x:t>
+    <x:t>2,8 (119/43)</x:t>
   </x:si>
   <x:si>
     <x:t>2,2 (1046/466)</x:t>
@@ -775,7 +790,7 @@
     <x:t>1,0 (2/2)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (1147/558)</x:t>
+    <x:t>2,1 (1158/562)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (27/20)</x:t>
@@ -1357,10 +1372,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>24077.7187633929</x:v>
+        <x:v>24833.7284598215</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1060261.2231875</x:v>
+        <x:v>1070845.3589375</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
         <x:v>6974.46906249982</x:v>
@@ -1402,7 +1417,7 @@
         <x:v>18373.9944583342</x:v>
       </x:c>
       <x:c r="R2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>10584.1357500004</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1516,10 +1531,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>12543.5729821433</x:v>
+        <x:v>13458.1513318457</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>986524.645020841</x:v>
+        <x:v>999328.741916676</x:v>
       </x:c>
       <x:c r="E5" s="16" t="n">
         <x:v>0</x:v>
@@ -1561,7 +1576,7 @@
         <x:v>6463.9599375003</x:v>
       </x:c>
       <x:c r="R5" s="16" t="n">
-        <x:v>39283.0476458353</x:v>
+        <x:v>52087.1445416695</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1569,10 +1584,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>11088.3703208333</x:v>
+        <x:v>12116.9381708333</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>249619.090229165</x:v>
+        <x:v>254761.929479165</x:v>
       </x:c>
       <x:c r="E6" s="16" t="s"/>
       <x:c r="F6" s="16" t="s"/>
@@ -1596,7 +1611,7 @@
         <x:v>14257.4414583332</x:v>
       </x:c>
       <x:c r="R6" s="16" t="n">
-        <x:v>376.958958333358</x:v>
+        <x:v>5519.79820833338</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1604,10 +1619,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>10124.2156428571</x:v>
+        <x:v>10462.4205863095</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>1321146.12897917</x:v>
+        <x:v>1325880.9981875</x:v>
       </x:c>
       <x:c r="E7" s="16" t="n">
         <x:v>21481.4164375004</x:v>
@@ -1649,7 +1664,7 @@
         <x:v>6729.73908333294</x:v>
       </x:c>
       <x:c r="R7" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4734.86920833332</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1657,52 +1672,34 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>9314.09251934543</x:v>
+        <x:v>10175.8238166666</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>1788747.47608335</x:v>
-      </x:c>
-      <x:c r="E8" s="16" t="n">
-        <x:v>20185.4792708333</x:v>
-      </x:c>
-      <x:c r="F8" s="16" t="n">
-        <x:v>12013.1223124999</x:v>
-      </x:c>
-      <x:c r="G8" s="16" t="n">
-        <x:v>11700.7122083341</x:v>
-      </x:c>
-      <x:c r="H8" s="16" t="n">
-        <x:v>13593.7471250012</x:v>
-      </x:c>
-      <x:c r="I8" s="16" t="n">
-        <x:v>5201.59508333332</x:v>
-      </x:c>
-      <x:c r="J8" s="16" t="n">
-        <x:v>30500.6531458346</x:v>
-      </x:c>
-      <x:c r="K8" s="16" t="n">
-        <x:v>6576.05512499949</x:v>
-      </x:c>
-      <x:c r="L8" s="16" t="n">
-        <x:v>1684.90470833308</x:v>
-      </x:c>
-      <x:c r="M8" s="16" t="n">
-        <x:v>1143.89466666663</x:v>
-      </x:c>
+        <x:v>608246.312958334</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s"/>
+      <x:c r="F8" s="16" t="s"/>
+      <x:c r="G8" s="16" t="s"/>
+      <x:c r="H8" s="16" t="s"/>
+      <x:c r="I8" s="16" t="s"/>
+      <x:c r="J8" s="16" t="s"/>
+      <x:c r="K8" s="16" t="s"/>
+      <x:c r="L8" s="16" t="s"/>
+      <x:c r="M8" s="16" t="s"/>
       <x:c r="N8" s="16" t="n">
-        <x:v>91.8230000000913</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>21960.3472083332</x:v>
+        <x:v>10936.3304166666</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
-        <x:v>4436.42583333352</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q8" s="16" t="n">
-        <x:v>962.9533333336</x:v>
+        <x:v>28139.8312916667</x:v>
       </x:c>
       <x:c r="R8" s="16" t="n">
-        <x:v>345.582249999978</x:v>
+        <x:v>11802.9573749999</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1710,34 +1707,52 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>7815.23234166666</x:v>
+        <x:v>9314.09251934543</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>596443.355583334</x:v>
-      </x:c>
-      <x:c r="E9" s="16" t="s"/>
-      <x:c r="F9" s="16" t="s"/>
-      <x:c r="G9" s="16" t="s"/>
-      <x:c r="H9" s="16" t="s"/>
-      <x:c r="I9" s="16" t="s"/>
-      <x:c r="J9" s="16" t="s"/>
-      <x:c r="K9" s="16" t="s"/>
-      <x:c r="L9" s="16" t="s"/>
-      <x:c r="M9" s="16" t="s"/>
+        <x:v>1788747.47608335</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="n">
+        <x:v>20185.4792708333</x:v>
+      </x:c>
+      <x:c r="F9" s="16" t="n">
+        <x:v>12013.1223124999</x:v>
+      </x:c>
+      <x:c r="G9" s="16" t="n">
+        <x:v>11700.7122083341</x:v>
+      </x:c>
+      <x:c r="H9" s="16" t="n">
+        <x:v>13593.7471250012</x:v>
+      </x:c>
+      <x:c r="I9" s="16" t="n">
+        <x:v>5201.59508333332</x:v>
+      </x:c>
+      <x:c r="J9" s="16" t="n">
+        <x:v>30500.6531458346</x:v>
+      </x:c>
+      <x:c r="K9" s="16" t="n">
+        <x:v>6576.05512499949</x:v>
+      </x:c>
+      <x:c r="L9" s="16" t="n">
+        <x:v>1684.90470833308</x:v>
+      </x:c>
+      <x:c r="M9" s="16" t="n">
+        <x:v>1143.89466666663</x:v>
+      </x:c>
       <x:c r="N9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>91.8230000000913</x:v>
       </x:c>
       <x:c r="O9" s="16" t="n">
-        <x:v>10936.3304166666</x:v>
+        <x:v>21960.3472083332</x:v>
       </x:c>
       <x:c r="P9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4436.42583333352</x:v>
       </x:c>
       <x:c r="Q9" s="16" t="n">
-        <x:v>28139.8312916667</x:v>
+        <x:v>962.9533333336</x:v>
       </x:c>
       <x:c r="R9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>345.582249999978</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1782,10 +1797,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>6636.99054967943</x:v>
+        <x:v>6869.92257852558</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>515433.166979167</x:v>
+        <x:v>518461.283354167</x:v>
       </x:c>
       <x:c r="E11" s="16" t="n">
         <x:v>1344.544375</x:v>
@@ -1825,7 +1840,7 @@
         <x:v>15908.7336041668</x:v>
       </x:c>
       <x:c r="R11" s="16" t="n">
-        <x:v>1200.28791666671</x:v>
+        <x:v>4228.40429166669</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -1886,10 +1901,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>4759.55630803566</x:v>
+        <x:v>4787.19712946424</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>945668.89904166</x:v>
+        <x:v>946055.870541661</x:v>
       </x:c>
       <x:c r="E13" s="16" t="n">
         <x:v>1778.0821041665</x:v>
@@ -1931,7 +1946,7 @@
         <x:v>3586.51781250001</x:v>
       </x:c>
       <x:c r="R13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>386.971500000102</x:v>
       </x:c>
       <x:c r="AE13" s="17" t="s"/>
     </x:row>
@@ -2071,52 +2086,52 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>3328.38222321427</x:v>
+        <x:v>3397.82425595235</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>1472089.7814375</x:v>
+        <x:v>517737.909791665</x:v>
       </x:c>
       <x:c r="E17" s="16" t="n">
-        <x:v>4068.95362500008</x:v>
+        <x:v>631.747708333307</x:v>
       </x:c>
       <x:c r="F17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>6396.37762499991</x:v>
       </x:c>
       <x:c r="G17" s="16" t="n">
-        <x:v>385.901833333308</x:v>
+        <x:v>1733.45249999996</x:v>
       </x:c>
       <x:c r="H17" s="16" t="n">
-        <x:v>504.89683333342</x:v>
+        <x:v>503.290166666615</x:v>
       </x:c>
       <x:c r="I17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>267.578833333333</x:v>
       </x:c>
       <x:c r="J17" s="16" t="n">
-        <x:v>501.929416666739</x:v>
+        <x:v>8274.22970833333</x:v>
       </x:c>
       <x:c r="K17" s="16" t="n">
-        <x:v>8762.98549999925</x:v>
+        <x:v>1374.18487499998</x:v>
       </x:c>
       <x:c r="L17" s="16" t="n">
-        <x:v>16059.5747500001</x:v>
+        <x:v>1752.97366666666</x:v>
       </x:c>
       <x:c r="M17" s="16" t="n">
-        <x:v>2067.62624999997</x:v>
+        <x:v>757.786333333293</x:v>
       </x:c>
       <x:c r="N17" s="16" t="n">
-        <x:v>5702.92441666662</x:v>
+        <x:v>4120.16512499994</x:v>
       </x:c>
       <x:c r="O17" s="16" t="n">
-        <x:v>5259.9001666666</x:v>
+        <x:v>11814.0680416668</x:v>
       </x:c>
       <x:c r="P17" s="16" t="n">
-        <x:v>309.129999999888</x:v>
+        <x:v>3170.90099999995</x:v>
       </x:c>
       <x:c r="Q17" s="16" t="n">
-        <x:v>2973.52833333379</x:v>
+        <x:v>3382.40054166666</x:v>
       </x:c>
       <x:c r="R17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>3390.38345833321</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
@@ -2124,52 +2139,52 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>3246.50594940474</x:v>
+        <x:v>3328.38222321427</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>515619.453499998</x:v>
+        <x:v>1472089.7814375</x:v>
       </x:c>
       <x:c r="E18" s="16" t="n">
-        <x:v>631.747708333307</x:v>
+        <x:v>4068.95362500008</x:v>
       </x:c>
       <x:c r="F18" s="16" t="n">
-        <x:v>6396.37762499991</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="16" t="n">
-        <x:v>1733.45249999996</x:v>
+        <x:v>385.901833333308</x:v>
       </x:c>
       <x:c r="H18" s="16" t="n">
-        <x:v>503.290166666615</x:v>
+        <x:v>504.89683333342</x:v>
       </x:c>
       <x:c r="I18" s="16" t="n">
-        <x:v>267.578833333333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J18" s="16" t="n">
-        <x:v>8274.22970833333</x:v>
+        <x:v>501.929416666739</x:v>
       </x:c>
       <x:c r="K18" s="16" t="n">
-        <x:v>1374.18487499998</x:v>
+        <x:v>8762.98549999925</x:v>
       </x:c>
       <x:c r="L18" s="16" t="n">
-        <x:v>1752.97366666666</x:v>
+        <x:v>16059.5747500001</x:v>
       </x:c>
       <x:c r="M18" s="16" t="n">
-        <x:v>757.786333333293</x:v>
+        <x:v>2067.62624999997</x:v>
       </x:c>
       <x:c r="N18" s="16" t="n">
-        <x:v>4120.16512499994</x:v>
+        <x:v>5702.92441666662</x:v>
       </x:c>
       <x:c r="O18" s="16" t="n">
-        <x:v>11814.0680416668</x:v>
+        <x:v>5259.9001666666</x:v>
       </x:c>
       <x:c r="P18" s="16" t="n">
-        <x:v>3170.90099999995</x:v>
+        <x:v>309.129999999888</x:v>
       </x:c>
       <x:c r="Q18" s="16" t="n">
-        <x:v>3382.40054166666</x:v>
+        <x:v>2973.52833333379</x:v>
       </x:c>
       <x:c r="R18" s="16" t="n">
-        <x:v>1271.9271666666</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:146">
@@ -2230,10 +2245,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>2303.66010416667</x:v>
+        <x:v>2652.79420833333</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>687845.577020833</x:v>
+        <x:v>692733.454479166</x:v>
       </x:c>
       <x:c r="E20" s="16" t="n">
         <x:v>7508.22049999994</x:v>
@@ -2275,7 +2290,7 @@
         <x:v>13077.3476458334</x:v>
       </x:c>
       <x:c r="R20" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4887.87745833327</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:146">
@@ -2283,10 +2298,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="15" t="n">
-        <x:v>1886.74752083336</x:v>
+        <x:v>1962.80410833337</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>553004.368395834</x:v>
+        <x:v>553764.934270834</x:v>
       </x:c>
       <x:c r="E21" s="16" t="n">
         <x:v>0</x:v>
@@ -2320,7 +2335,7 @@
         <x:v>1364.12733333325</x:v>
       </x:c>
       <x:c r="R21" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>760.565875000088</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:146">
@@ -3117,8 +3132,7 @@
     <x:col min="9" max="10" width="17.270625" style="0" customWidth="1"/>
     <x:col min="11" max="12" width="15.980625" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="17.270625" style="0" customWidth="1"/>
-    <x:col min="14" max="16" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="14" max="17" width="15.980625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -3274,7 +3288,7 @@
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
         <x:v>78</x:v>
@@ -3369,7 +3383,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -3377,49 +3391,49 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -3427,46 +3441,46 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
         <x:v>53</x:v>
@@ -3477,49 +3491,49 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -3527,28 +3541,28 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
         <x:v>53</x:v>
@@ -3557,69 +3571,69 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -3627,7 +3641,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
         <x:v>53</x:v>
@@ -3639,7 +3653,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
         <x:v>53</x:v>
@@ -3648,28 +3662,28 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -3677,10 +3691,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
         <x:v>53</x:v>
@@ -3689,37 +3703,37 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -3727,49 +3741,49 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -3777,99 +3791,99 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -3877,28 +3891,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
         <x:v>53</x:v>
@@ -3907,19 +3921,19 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -3927,28 +3941,28 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>202</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>204</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>205</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>206</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>207</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
         <x:v>53</x:v>
@@ -3960,66 +3974,66 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>208</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>209</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>210</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>214</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>217</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>218</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>220</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>221</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>222</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>224</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>225</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -4027,49 +4041,49 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>226</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>227</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>228</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>229</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>230</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
@@ -4077,16 +4091,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>232</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>233</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>234</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
         <x:v>53</x:v>
@@ -4095,25 +4109,25 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>236</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>237</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>238</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>239</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>240</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>241</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
         <x:v>53</x:v>
@@ -4127,49 +4141,49 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>242</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>243</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>244</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>245</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>246</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>247</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>248</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>249</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>250</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>251</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>254</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
@@ -4177,46 +4191,46 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>255</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>255</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
         <x:v>53</x:v>
@@ -4227,49 +4241,49 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>256</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>257</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>258</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
@@ -4277,49 +4291,49 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>259</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>261</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>262</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
@@ -4327,49 +4341,49 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>263</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>264</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>266</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>268</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
@@ -4377,46 +4391,46 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>269</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>274</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>275</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>276</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
         <x:v>53</x:v>
@@ -4430,46 +4444,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
@@ -4480,46 +4494,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -4530,46 +4544,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
@@ -4580,46 +4594,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
@@ -4630,46 +4644,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -4680,46 +4694,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -4730,46 +4744,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -4780,46 +4794,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -4830,46 +4844,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -4883,43 +4897,43 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -4930,46 +4944,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -4980,46 +4994,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -5030,46 +5044,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -5080,46 +5094,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -5130,46 +5144,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -5180,46 +5194,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -5230,46 +5244,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -5280,46 +5294,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -5330,46 +5344,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
@@ -5380,46 +5394,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -5430,46 +5444,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
@@ -5480,46 +5494,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:36">
@@ -5533,43 +5547,43 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
